--- a/Mathieusche Differentialgleichung/Programme/dataFolder_Arnold_Excel_Classic_Symmetric_test/STRUTTscheKarte_D1dot5e-01_SW1dot0e-01_unt0CharExAll.xlsx
+++ b/Mathieusche Differentialgleichung/Programme/dataFolder_Arnold_Excel_Classic_Symmetric_test/STRUTTscheKarte_D1dot5e-01_SW1dot0e-01_unt0CharExAll.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="70" uniqueCount="10">
   <si>
     <t>nu02</t>
   </si>
